--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.674691365054385E-06</v>
+        <v>-0.01410221028989773</v>
       </c>
       <c r="C2">
-        <v>0.001056127124745173</v>
+        <v>0.00953562981134839</v>
       </c>
       <c r="D2">
-        <v>0.001381441071655897</v>
+        <v>0.01855247501559053</v>
       </c>
       <c r="E2">
-        <v>0.001770656543806698</v>
+        <v>0.02171587776501176</v>
       </c>
       <c r="F2">
-        <v>0.001540516740252126</v>
+        <v>0.02159236124184685</v>
       </c>
       <c r="G2">
-        <v>0.001407750317714957</v>
+        <v>0.01577426337014717</v>
       </c>
       <c r="H2">
-        <v>0.0002201643058192064</v>
+        <v>0.004565592928077191</v>
       </c>
       <c r="I2">
-        <v>-0.000127592425031738</v>
+        <v>-0.00245944424789504</v>
       </c>
       <c r="J2">
-        <v>-0.0005743546206817031</v>
+        <v>-0.0074399212988127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.01029026021018495</v>
+        <v>-0.01678566711499041</v>
       </c>
       <c r="C3">
-        <v>0.006770472555773992</v>
+        <v>0.01042147356731182</v>
       </c>
       <c r="D3">
-        <v>0.01277310747157023</v>
+        <v>0.01571737169510646</v>
       </c>
       <c r="E3">
-        <v>0.01845627845374672</v>
+        <v>0.02484477177874808</v>
       </c>
       <c r="F3">
-        <v>0.0179060374757632</v>
+        <v>0.02401177230263353</v>
       </c>
       <c r="G3">
-        <v>0.01310836602534135</v>
+        <v>0.01996800640199392</v>
       </c>
       <c r="H3">
-        <v>0.007052852948583461</v>
+        <v>-0.001501006804453027</v>
       </c>
       <c r="I3">
-        <v>-0.00130293739777562</v>
+        <v>-0.002545685361975231</v>
       </c>
       <c r="J3">
-        <v>-0.009188451717339265</v>
+        <v>-0.008343216368466987</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.551553277718203E-06</v>
+        <v>-6.359698326168862E-06</v>
       </c>
       <c r="C4">
-        <v>0.0006082216039732267</v>
+        <v>0.0007495619719618674</v>
       </c>
       <c r="D4">
-        <v>0.001120533482011492</v>
+        <v>0.001368429355775598</v>
       </c>
       <c r="E4">
-        <v>0.001607639511702828</v>
+        <v>0.002231497614336427</v>
       </c>
       <c r="F4">
-        <v>0.001506282086583288</v>
+        <v>0.00197653479408768</v>
       </c>
       <c r="G4">
-        <v>0.001219396563987197</v>
+        <v>0.001714493874063808</v>
       </c>
       <c r="H4">
-        <v>0.0006508160248368339</v>
+        <v>0.0002176448010755615</v>
       </c>
       <c r="I4">
-        <v>-0.000127615742393347</v>
+        <v>-0.0002397599294226327</v>
       </c>
       <c r="J4">
-        <v>-0.00132072165353717</v>
+        <v>-0.000663660577450143</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1501581301594784</v>
+        <v>-0.09311532961264522</v>
       </c>
       <c r="C5">
-        <v>0.2694148467849794</v>
+        <v>0.06584115349461306</v>
       </c>
       <c r="D5">
-        <v>0.4259861753357129</v>
+        <v>0.1001816029098328</v>
       </c>
       <c r="E5">
-        <v>0.7422165834655268</v>
+        <v>0.1514769975538424</v>
       </c>
       <c r="F5">
-        <v>0.2478643742396161</v>
+        <v>0.1444969639321608</v>
       </c>
       <c r="G5">
-        <v>0.08642724618931109</v>
+        <v>0.1165348106242589</v>
       </c>
       <c r="H5">
-        <v>-0.0163024855847432</v>
+        <v>-0.03099780240761003</v>
       </c>
       <c r="I5">
-        <v>-0.3927764371248462</v>
+        <v>-0.02680742271165933</v>
       </c>
       <c r="J5">
-        <v>-0.5756504087744843</v>
+        <v>-0.04692195569164331</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5580078335093639</v>
+        <v>-0.01392498262674603</v>
       </c>
       <c r="C6">
-        <v>0.6186301083337223</v>
+        <v>0.004005303153174445</v>
       </c>
       <c r="D6">
-        <v>0.4303292008022144</v>
+        <v>0.01033655476760284</v>
       </c>
       <c r="E6">
-        <v>1.140009644971838</v>
+        <v>0.02562314246085017</v>
       </c>
       <c r="F6">
-        <v>0.5458480087595735</v>
+        <v>0.02136667148121964</v>
       </c>
       <c r="G6">
-        <v>0.1718862688660082</v>
+        <v>0.01835584592877203</v>
       </c>
       <c r="H6">
-        <v>-0.09452101332161265</v>
+        <v>7.658535493608623E-05</v>
       </c>
       <c r="I6">
-        <v>-0.3336168888831241</v>
+        <v>-0.002414857070175064</v>
       </c>
       <c r="J6">
-        <v>-0.87072588554634</v>
+        <v>-0.01051735676900319</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.734541573310356E-06</v>
+        <v>-0.212166282409984</v>
       </c>
       <c r="C7">
-        <v>0.0008812226123047947</v>
+        <v>0.06460005428749005</v>
       </c>
       <c r="D7">
-        <v>0.001396990693109951</v>
+        <v>0.1973437680738992</v>
       </c>
       <c r="E7">
-        <v>0.00208165320756088</v>
+        <v>0.4250756107234193</v>
       </c>
       <c r="F7">
-        <v>0.001414654618040646</v>
+        <v>0.2862150008536707</v>
       </c>
       <c r="G7">
-        <v>0.001336551577202917</v>
+        <v>0.1991558087730621</v>
       </c>
       <c r="H7">
-        <v>-5.043878554223875E-06</v>
+        <v>0.0543049505095175</v>
       </c>
       <c r="I7">
-        <v>-0.0001281608339174743</v>
+        <v>-0.1221847443316485</v>
       </c>
       <c r="J7">
-        <v>-0.0006418777844707022</v>
+        <v>-0.2962321523322896</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.01014475364741833</v>
+        <v>-0.09531681800955888</v>
       </c>
       <c r="C8">
-        <v>0.007058688357822801</v>
+        <v>0.05095760250738148</v>
       </c>
       <c r="D8">
-        <v>0.009924254734410382</v>
+        <v>0.06831417714478522</v>
       </c>
       <c r="E8">
-        <v>0.0195629490228791</v>
+        <v>0.1767723874119344</v>
       </c>
       <c r="F8">
-        <v>0.01672048041418045</v>
+        <v>0.1332232311825605</v>
       </c>
       <c r="G8">
-        <v>0.01255166534867795</v>
+        <v>0.1239539699417738</v>
       </c>
       <c r="H8">
-        <v>0.002245740749551302</v>
+        <v>0.0336639422162064</v>
       </c>
       <c r="I8">
-        <v>-0.001342715943061326</v>
+        <v>-0.02743343152892248</v>
       </c>
       <c r="J8">
-        <v>-0.01372252390543425</v>
+        <v>-0.07789900767214604</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.008639776994706432</v>
+        <v>-0.3688678586186185</v>
       </c>
       <c r="C9">
-        <v>0.007447508550981706</v>
+        <v>-0.03060280814491209</v>
       </c>
       <c r="D9">
-        <v>0.009560796015070219</v>
+        <v>0.2557924907947421</v>
       </c>
       <c r="E9">
-        <v>0.01894375731048288</v>
+        <v>0.6413607138485712</v>
       </c>
       <c r="F9">
-        <v>0.01595023954466132</v>
+        <v>0.6216822083040326</v>
       </c>
       <c r="G9">
-        <v>0.01053544443740434</v>
+        <v>0.2178287406683863</v>
       </c>
       <c r="H9">
-        <v>0.003069709544839851</v>
+        <v>-0.1421185289778586</v>
       </c>
       <c r="I9">
-        <v>-0.00131247765135297</v>
+        <v>-0.1935409787760915</v>
       </c>
       <c r="J9">
-        <v>-0.01094467175133578</v>
+        <v>-0.6221363428054195</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.008996204531718135</v>
+        <v>-0.5121614128303477</v>
       </c>
       <c r="C10">
-        <v>0.006364734271757481</v>
+        <v>0.2809950511056903</v>
       </c>
       <c r="D10">
-        <v>0.0128446631178093</v>
+        <v>0.4168730109251586</v>
       </c>
       <c r="E10">
-        <v>0.01519245178206065</v>
+        <v>0.9608680781926104</v>
       </c>
       <c r="F10">
-        <v>0.01668821654363588</v>
+        <v>0.4796812214617472</v>
       </c>
       <c r="G10">
-        <v>0.0126324023813832</v>
+        <v>0.2435952220394462</v>
       </c>
       <c r="H10">
-        <v>0.006523118030946984</v>
+        <v>0.2436510745722126</v>
       </c>
       <c r="I10">
-        <v>-0.001293333727516965</v>
+        <v>-0.4018016552598304</v>
       </c>
       <c r="J10">
-        <v>-0.01092815045460718</v>
+        <v>-0.7591368487556059</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.009336696060146818</v>
+        <v>-0.01141993559156145</v>
       </c>
       <c r="C11">
-        <v>0.01083171613106746</v>
+        <v>0.005742603285244011</v>
       </c>
       <c r="D11">
-        <v>0.01304718677782937</v>
+        <v>0.0122882630693194</v>
       </c>
       <c r="E11">
-        <v>0.01826535520108975</v>
+        <v>0.01994097509531166</v>
       </c>
       <c r="F11">
-        <v>0.0154231646322859</v>
+        <v>0.01969130354837976</v>
       </c>
       <c r="G11">
-        <v>0.01294994536898596</v>
+        <v>0.01502792330327831</v>
       </c>
       <c r="H11">
-        <v>0.001408052789693294</v>
+        <v>0.00311267612758035</v>
       </c>
       <c r="I11">
-        <v>-0.001279261923794417</v>
+        <v>-0.002401149009993987</v>
       </c>
       <c r="J11">
-        <v>-0.006704267733098854</v>
+        <v>-0.01322212249383036</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1516898879139753</v>
+        <v>-0.2284104783734993</v>
       </c>
       <c r="C12">
-        <v>0.188204952314275</v>
+        <v>0.05001327921811709</v>
       </c>
       <c r="D12">
-        <v>0.1168997949314024</v>
+        <v>0.2223621713163673</v>
       </c>
       <c r="E12">
-        <v>0.294537180842974</v>
+        <v>0.3955546018523809</v>
       </c>
       <c r="F12">
-        <v>0.3290536795486663</v>
+        <v>0.3331705473045</v>
       </c>
       <c r="G12">
-        <v>0.386045367864672</v>
+        <v>0.2859044629856424</v>
       </c>
       <c r="H12">
-        <v>0.08207631555678449</v>
+        <v>-0.02439190826062247</v>
       </c>
       <c r="I12">
-        <v>-0.1401821997632534</v>
+        <v>-0.12189170149824</v>
       </c>
       <c r="J12">
-        <v>-0.3081453763104582</v>
+        <v>-0.1713252905861309</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01052293647616281</v>
+        <v>-0.08243005849622685</v>
       </c>
       <c r="C13">
-        <v>0.006105783008116652</v>
+        <v>0.05429254150697784</v>
       </c>
       <c r="D13">
-        <v>0.009102823594519751</v>
+        <v>0.08606017354243692</v>
       </c>
       <c r="E13">
-        <v>0.01967147571812543</v>
+        <v>0.1675788602399435</v>
       </c>
       <c r="F13">
-        <v>0.01927334060458374</v>
+        <v>0.1480326044423098</v>
       </c>
       <c r="G13">
-        <v>0.01499876753622856</v>
+        <v>0.07103542360302323</v>
       </c>
       <c r="H13">
-        <v>0.003443696273945244</v>
+        <v>0.01756734678648655</v>
       </c>
       <c r="I13">
-        <v>-0.001215529131151702</v>
+        <v>-0.02834439257930461</v>
       </c>
       <c r="J13">
-        <v>-0.009665989393034813</v>
+        <v>-0.06020786628068279</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.05635202495463817</v>
+        <v>-0.5277474050012666</v>
       </c>
       <c r="C14">
-        <v>0.05586483542810761</v>
+        <v>0.4671865126286358</v>
       </c>
       <c r="D14">
-        <v>0.07562353384405243</v>
+        <v>0.06904223501525195</v>
       </c>
       <c r="E14">
-        <v>0.1426045404840456</v>
+        <v>1.076299759686143</v>
       </c>
       <c r="F14">
-        <v>0.1075801590005883</v>
+        <v>0.765322773452785</v>
       </c>
       <c r="G14">
-        <v>0.06185323044347706</v>
+        <v>0.1305418020474311</v>
       </c>
       <c r="H14">
-        <v>0.04367366721142985</v>
+        <v>0.1987803531769941</v>
       </c>
       <c r="I14">
-        <v>-0.01606152597585535</v>
+        <v>-0.4832181812908513</v>
       </c>
       <c r="J14">
-        <v>-0.04415133435193064</v>
+        <v>-0.5932241110027299</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2433335108453044</v>
+        <v>-0.01241645556878397</v>
       </c>
       <c r="C15">
-        <v>0.244092562258033</v>
+        <v>0.005682485476613138</v>
       </c>
       <c r="D15">
-        <v>0.09987069542496439</v>
+        <v>0.01077110963680154</v>
       </c>
       <c r="E15">
-        <v>0.6667626296057444</v>
+        <v>0.02232712723675531</v>
       </c>
       <c r="F15">
-        <v>0.2896968629220801</v>
+        <v>0.02120351292575889</v>
       </c>
       <c r="G15">
-        <v>0.2680837279878053</v>
+        <v>0.0161500981003828</v>
       </c>
       <c r="H15">
-        <v>0.1075697511670469</v>
+        <v>0.004369760359584178</v>
       </c>
       <c r="I15">
-        <v>-0.1442789345037558</v>
+        <v>-0.002463007953760902</v>
       </c>
       <c r="J15">
-        <v>-0.3460706582383121</v>
+        <v>-0.01104526291483924</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1745303724482292</v>
+        <v>-0.009412642209721312</v>
       </c>
       <c r="C16">
-        <v>0.1243688516532972</v>
+        <v>0.005165517117308281</v>
       </c>
       <c r="D16">
-        <v>0.2338516678088059</v>
+        <v>0.0106277385372775</v>
       </c>
       <c r="E16">
-        <v>0.3615015546541205</v>
+        <v>0.02104137672079539</v>
       </c>
       <c r="F16">
-        <v>0.249523794080348</v>
+        <v>0.01743247418738079</v>
       </c>
       <c r="G16">
-        <v>0.1876033007419259</v>
+        <v>0.01312153657254978</v>
       </c>
       <c r="H16">
-        <v>-0.03962043552361084</v>
+        <v>0.003780382635571369</v>
       </c>
       <c r="I16">
-        <v>-0.04718917221215123</v>
+        <v>-0.002513011128203003</v>
       </c>
       <c r="J16">
-        <v>-0.315851994324668</v>
+        <v>-0.008091508381962858</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.04950420968649344</v>
+        <v>-0.01146036411031876</v>
       </c>
       <c r="C17">
-        <v>0.01772069152529168</v>
+        <v>0.007074279939319086</v>
       </c>
       <c r="D17">
-        <v>0.06716936766699044</v>
+        <v>0.01298303297223142</v>
       </c>
       <c r="E17">
-        <v>0.1406687945592022</v>
+        <v>0.01888234570869917</v>
       </c>
       <c r="F17">
-        <v>0.1182354386392002</v>
+        <v>0.01957315652856957</v>
       </c>
       <c r="G17">
-        <v>0.06043928970123814</v>
+        <v>0.01683449843316242</v>
       </c>
       <c r="H17">
-        <v>0.03964489340800486</v>
+        <v>-0.002400608003059656</v>
       </c>
       <c r="I17">
-        <v>-0.0152537553046986</v>
+        <v>-0.002429907282593987</v>
       </c>
       <c r="J17">
-        <v>-0.04829045022793108</v>
+        <v>-0.01146565618740676</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.008701029396777346</v>
+        <v>-0.2855687505969156</v>
       </c>
       <c r="C18">
-        <v>0.007054668036053173</v>
+        <v>0.1120424022658958</v>
       </c>
       <c r="D18">
-        <v>0.008921878003441932</v>
+        <v>0.2083270959083508</v>
       </c>
       <c r="E18">
-        <v>0.01796993527876559</v>
+        <v>0.4215008730833437</v>
       </c>
       <c r="F18">
-        <v>0.01620077946459766</v>
+        <v>0.3205376926410727</v>
       </c>
       <c r="G18">
-        <v>0.01343539477560192</v>
+        <v>0.3393467218069807</v>
       </c>
       <c r="H18">
-        <v>0.004658015475396763</v>
+        <v>0.05992093910934167</v>
       </c>
       <c r="I18">
-        <v>-0.001276543785230277</v>
+        <v>-0.1177800573315619</v>
       </c>
       <c r="J18">
-        <v>-0.009480664246893459</v>
+        <v>-0.2471672217783121</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0118167387618759</v>
+        <v>-0.08033622915441838</v>
       </c>
       <c r="C19">
-        <v>0.01262084951262523</v>
+        <v>0.07228760228097857</v>
       </c>
       <c r="D19">
-        <v>0.01500346797320469</v>
+        <v>0.04139157586311797</v>
       </c>
       <c r="E19">
-        <v>0.01767948060603085</v>
+        <v>0.1549136149746057</v>
       </c>
       <c r="F19">
-        <v>0.0178070606449327</v>
+        <v>0.1412193596137642</v>
       </c>
       <c r="G19">
-        <v>0.01660840895621687</v>
+        <v>0.1036116001552624</v>
       </c>
       <c r="H19">
-        <v>0.004988222914914535</v>
+        <v>0.01777234697209377</v>
       </c>
       <c r="I19">
-        <v>-0.001319372903466803</v>
+        <v>-0.03098173475418315</v>
       </c>
       <c r="J19">
-        <v>-0.004847748679117001</v>
+        <v>-0.06802278485838949</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1849588967282717</v>
+        <v>-0.009587485920395218</v>
       </c>
       <c r="C20">
-        <v>0.239741841148884</v>
+        <v>0.004795364844771225</v>
       </c>
       <c r="D20">
-        <v>0.1883246341721809</v>
+        <v>0.01075944209978133</v>
       </c>
       <c r="E20">
-        <v>0.4161736213428242</v>
+        <v>0.01849600017035279</v>
       </c>
       <c r="F20">
-        <v>0.2517259797515076</v>
+        <v>0.02091818011625536</v>
       </c>
       <c r="G20">
-        <v>0.1722246645357088</v>
+        <v>0.01195128613130153</v>
       </c>
       <c r="H20">
-        <v>-0.006084568575126658</v>
+        <v>-0.001056129173030915</v>
       </c>
       <c r="I20">
-        <v>-0.06767371757886466</v>
+        <v>-0.002463557763335184</v>
       </c>
       <c r="J20">
-        <v>-0.2188706005290651</v>
+        <v>-0.009740150366029227</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.008881362166301844</v>
+        <v>-0.2660436245429609</v>
       </c>
       <c r="C21">
-        <v>0.01097518376855662</v>
+        <v>0.1037364929880456</v>
       </c>
       <c r="D21">
-        <v>0.01190229541787643</v>
+        <v>0.1621705977408119</v>
       </c>
       <c r="E21">
-        <v>0.01697093254620093</v>
+        <v>0.4315771113407988</v>
       </c>
       <c r="F21">
-        <v>0.01619494876143029</v>
+        <v>0.3686921242136531</v>
       </c>
       <c r="G21">
-        <v>0.01152949262603263</v>
+        <v>0.3209404564857909</v>
       </c>
       <c r="H21">
-        <v>-0.0008705674173167613</v>
+        <v>0.0128612400424614</v>
       </c>
       <c r="I21">
-        <v>-0.001298610478756492</v>
+        <v>-0.1275782622822855</v>
       </c>
       <c r="J21">
-        <v>-0.009111118730140137</v>
+        <v>-0.3046410762090878</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.868946262913774E-06</v>
+        <v>-0.2110244188753095</v>
       </c>
       <c r="C22">
-        <v>0.0009456194833232599</v>
+        <v>0.147668534384477</v>
       </c>
       <c r="D22">
-        <v>0.001355337604411758</v>
+        <v>-0.0017714767321986</v>
       </c>
       <c r="E22">
-        <v>0.001765975946113697</v>
+        <v>0.4081696635222033</v>
       </c>
       <c r="F22">
-        <v>0.001701696034570931</v>
+        <v>0.3215335683722552</v>
       </c>
       <c r="G22">
-        <v>0.001463921546322785</v>
+        <v>0.315883308013668</v>
       </c>
       <c r="H22">
-        <v>0.0004547471417720638</v>
+        <v>-0.003248066229146186</v>
       </c>
       <c r="I22">
-        <v>-0.0001279399290099212</v>
+        <v>-0.1000050887383374</v>
       </c>
       <c r="J22">
-        <v>-0.0009971703172086748</v>
+        <v>-0.2414773107500075</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.2369743471960222</v>
+        <v>-0.01172400974182456</v>
       </c>
       <c r="C23">
-        <v>0.1483505562374869</v>
+        <v>0.005844639637175644</v>
       </c>
       <c r="D23">
-        <v>0.1663147386841012</v>
+        <v>0.0117406417057118</v>
       </c>
       <c r="E23">
-        <v>0.476140892278907</v>
+        <v>0.02168802354358416</v>
       </c>
       <c r="F23">
-        <v>0.3241220599023706</v>
+        <v>0.01981093631769795</v>
       </c>
       <c r="G23">
-        <v>0.2897381019132934</v>
+        <v>0.01730263267537499</v>
       </c>
       <c r="H23">
-        <v>-0.04705860576665317</v>
+        <v>0.001837616663223947</v>
       </c>
       <c r="I23">
-        <v>-0.04888909884964315</v>
+        <v>-0.002530613624044113</v>
       </c>
       <c r="J23">
-        <v>-0.2497020577021843</v>
+        <v>-0.008682051432145767</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.007580204358536098</v>
+        <v>-0.2402821670427093</v>
       </c>
       <c r="C24">
-        <v>0.005456303263988049</v>
+        <v>0.1027520208262638</v>
       </c>
       <c r="D24">
-        <v>0.01015339321357187</v>
+        <v>0.008330926674053269</v>
       </c>
       <c r="E24">
-        <v>0.01617005405218743</v>
+        <v>0.4457073843390073</v>
       </c>
       <c r="F24">
-        <v>0.0146760415849261</v>
+        <v>0.3628801797025874</v>
       </c>
       <c r="G24">
-        <v>0.009465685936530948</v>
+        <v>0.3477383706907928</v>
       </c>
       <c r="H24">
-        <v>0.006335127839459807</v>
+        <v>0.01565311681892268</v>
       </c>
       <c r="I24">
-        <v>-0.001301852543667996</v>
+        <v>-0.127063357050172</v>
       </c>
       <c r="J24">
-        <v>-0.01213359782665109</v>
+        <v>-0.09297740328988789</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.009518389804261094</v>
+        <v>-6.288166626435375E-06</v>
       </c>
       <c r="C25">
-        <v>0.00913481308736327</v>
+        <v>0.001023953473134992</v>
       </c>
       <c r="D25">
-        <v>0.008872118712215294</v>
+        <v>0.001421120271160303</v>
       </c>
       <c r="E25">
-        <v>0.0194636689492391</v>
+        <v>0.002074260623529221</v>
       </c>
       <c r="F25">
-        <v>0.01607488122565587</v>
+        <v>0.001748255829531161</v>
       </c>
       <c r="G25">
-        <v>0.01319094957993347</v>
+        <v>0.001535806824438767</v>
       </c>
       <c r="H25">
-        <v>0.008810541631020703</v>
+        <v>0.0004823849971332594</v>
       </c>
       <c r="I25">
-        <v>-0.001325088326825205</v>
+        <v>-0.0002390594741410764</v>
       </c>
       <c r="J25">
-        <v>-0.006920621311680466</v>
+        <v>-0.001140872091221706</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.009679655428093667</v>
+        <v>-0.2290708400241575</v>
       </c>
       <c r="C26">
-        <v>0.008267297790126341</v>
+        <v>0.1065883514254255</v>
       </c>
       <c r="D26">
-        <v>0.01498370840474987</v>
+        <v>0.2647160176248122</v>
       </c>
       <c r="E26">
-        <v>0.01928021950451186</v>
+        <v>0.4012300523344766</v>
       </c>
       <c r="F26">
-        <v>0.0154262101532355</v>
+        <v>0.257154736650576</v>
       </c>
       <c r="G26">
-        <v>0.01206855662217917</v>
+        <v>0.2559500126984282</v>
       </c>
       <c r="H26">
-        <v>0.003397388903561786</v>
+        <v>-0.0331288965206009</v>
       </c>
       <c r="I26">
-        <v>-0.001330555151957455</v>
+        <v>-0.1179486175817102</v>
       </c>
       <c r="J26">
-        <v>-0.007238221926452103</v>
+        <v>-0.2038825489451981</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.008221884257337419</v>
+        <v>-0.06754457644018397</v>
       </c>
       <c r="C27">
-        <v>0.008018819780456734</v>
+        <v>0.07015131387300752</v>
       </c>
       <c r="D27">
-        <v>0.01048438559092944</v>
+        <v>0.0798641370129267</v>
       </c>
       <c r="E27">
-        <v>0.01833263249573379</v>
+        <v>0.1379075505635951</v>
       </c>
       <c r="F27">
-        <v>0.01693961400845888</v>
+        <v>0.1165332832512644</v>
       </c>
       <c r="G27">
-        <v>0.01035809112651734</v>
+        <v>0.08827366126923439</v>
       </c>
       <c r="H27">
-        <v>0.002494311108454857</v>
+        <v>0.003506161144171926</v>
       </c>
       <c r="I27">
-        <v>-0.001260729999241248</v>
+        <v>-0.03153542841418511</v>
       </c>
       <c r="J27">
-        <v>-0.006644040191212771</v>
+        <v>-0.06835415073488836</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.199971082070141</v>
+        <v>-0.2506633457006503</v>
       </c>
       <c r="C28">
-        <v>0.1602836909548792</v>
+        <v>0.1222351090561134</v>
       </c>
       <c r="D28">
-        <v>0.2862732450480757</v>
+        <v>0.2180166761755018</v>
       </c>
       <c r="E28">
-        <v>0.4477404629299342</v>
+        <v>0.4226664958159002</v>
       </c>
       <c r="F28">
-        <v>0.283540310360393</v>
+        <v>0.2934942921393132</v>
       </c>
       <c r="G28">
-        <v>0.1361486740504264</v>
+        <v>0.1873358943873682</v>
       </c>
       <c r="H28">
-        <v>0.008662287634989954</v>
+        <v>-0.008710640320146975</v>
       </c>
       <c r="I28">
-        <v>-0.09256405233301571</v>
+        <v>-0.07898363780651775</v>
       </c>
       <c r="J28">
-        <v>-0.2656306497791538</v>
+        <v>-0.3207310932679009</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.1844911441192066</v>
+        <v>-0.4525304742254615</v>
       </c>
       <c r="C29">
-        <v>0.188292875608956</v>
+        <v>-0.01517240975400231</v>
       </c>
       <c r="D29">
-        <v>0.1602179077971712</v>
+        <v>0.2676914340168236</v>
       </c>
       <c r="E29">
-        <v>0.3066885036067587</v>
+        <v>0.8371895132308278</v>
       </c>
       <c r="F29">
-        <v>0.3836583926586111</v>
+        <v>0.4017617829047951</v>
       </c>
       <c r="G29">
-        <v>0.2134827835592058</v>
+        <v>0.3122396558309912</v>
       </c>
       <c r="H29">
-        <v>0.05736083320466252</v>
+        <v>-0.09147343529987943</v>
       </c>
       <c r="I29">
-        <v>-0.06396330116151303</v>
+        <v>-0.1344418559343082</v>
       </c>
       <c r="J29">
-        <v>-0.230830632948348</v>
+        <v>-0.418041600658561</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.95623169621049E-06</v>
+        <v>-0.5484361087553719</v>
       </c>
       <c r="C30">
-        <v>0.0003311610228356549</v>
+        <v>0.3444685633091158</v>
       </c>
       <c r="D30">
-        <v>0.001371509862545956</v>
+        <v>0.01891892958760774</v>
       </c>
       <c r="E30">
-        <v>0.0021655629547561</v>
+        <v>0.8618911580572858</v>
       </c>
       <c r="F30">
-        <v>0.001883912674601057</v>
+        <v>0.7310108261798214</v>
       </c>
       <c r="G30">
-        <v>0.001405272227875787</v>
+        <v>0.2375851819944598</v>
       </c>
       <c r="H30">
-        <v>9.952041176566624E-05</v>
+        <v>0.2541115817415563</v>
       </c>
       <c r="I30">
-        <v>-0.0001274152765132859</v>
+        <v>-0.5377984823644008</v>
       </c>
       <c r="J30">
-        <v>-0.0006436705821880879</v>
+        <v>-0.676749419084665</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.728676509319962E-06</v>
+        <v>-2.012745433104328E-06</v>
       </c>
       <c r="C31">
-        <v>0.0006732437211771561</v>
+        <v>0.0008749581692549456</v>
       </c>
       <c r="D31">
-        <v>0.001164283192332161</v>
+        <v>0.001180357079119237</v>
       </c>
       <c r="E31">
-        <v>0.002064283103187713</v>
+        <v>0.002029964441321433</v>
       </c>
       <c r="F31">
-        <v>0.001737675691766302</v>
+        <v>0.001785784202707011</v>
       </c>
       <c r="G31">
-        <v>0.001343682752277289</v>
+        <v>0.001398840199964686</v>
       </c>
       <c r="H31">
-        <v>0.0004732716623928726</v>
+        <v>0.0001770475523733429</v>
       </c>
       <c r="I31">
-        <v>-0.0001279564005858004</v>
+        <v>-0.0002382310120407835</v>
       </c>
       <c r="J31">
-        <v>-0.0003253805721177332</v>
+        <v>-0.0002092645947329797</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.06350117096426827</v>
+        <v>-0.6243376704111296</v>
       </c>
       <c r="C32">
-        <v>0.03191187573664797</v>
+        <v>0.4738914562920135</v>
       </c>
       <c r="D32">
-        <v>0.08611794730195443</v>
+        <v>0.1723543458872721</v>
       </c>
       <c r="E32">
-        <v>0.1449752704997227</v>
+        <v>1.304295333545957</v>
       </c>
       <c r="F32">
-        <v>0.1369760013676422</v>
+        <v>0.2240266742454019</v>
       </c>
       <c r="G32">
-        <v>0.0491849191640765</v>
+        <v>0.5644513427245358</v>
       </c>
       <c r="H32">
-        <v>0.01844649179407161</v>
+        <v>-0.2033176347433711</v>
       </c>
       <c r="I32">
-        <v>-0.01585889594541046</v>
+        <v>-0.3360321450050932</v>
       </c>
       <c r="J32">
-        <v>-0.06886212161840724</v>
+        <v>-0.7142835337416555</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-5.510674686009322E-06</v>
+        <v>-0.2706773102014038</v>
       </c>
       <c r="C33">
-        <v>0.000701598322419597</v>
+        <v>0.2213564153064802</v>
       </c>
       <c r="D33">
-        <v>0.001698337889088736</v>
+        <v>0.3697107190958998</v>
       </c>
       <c r="E33">
-        <v>0.002236147430877308</v>
+        <v>0.3729555956305236</v>
       </c>
       <c r="F33">
-        <v>0.001817871204478829</v>
+        <v>0.493071632523771</v>
       </c>
       <c r="G33">
-        <v>0.001280589506136672</v>
+        <v>0.0904798362693565</v>
       </c>
       <c r="H33">
-        <v>0.0001960228242309426</v>
+        <v>-0.1062337959839834</v>
       </c>
       <c r="I33">
-        <v>-0.0001289117147489022</v>
+        <v>-0.1585245348142309</v>
       </c>
       <c r="J33">
-        <v>-0.0009674590093305312</v>
+        <v>-0.226857434123433</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.05960953224266073</v>
+        <v>-0.01201331656332981</v>
       </c>
       <c r="C34">
-        <v>0.06102744475784747</v>
+        <v>0.006513602376538206</v>
       </c>
       <c r="D34">
-        <v>0.0943767009791759</v>
+        <v>0.01196868856805188</v>
       </c>
       <c r="E34">
-        <v>0.1426387911285743</v>
+        <v>0.02006217359787163</v>
       </c>
       <c r="F34">
-        <v>0.1069267985339673</v>
+        <v>0.02072053348650332</v>
       </c>
       <c r="G34">
-        <v>0.06553865394900898</v>
+        <v>0.01866811775258831</v>
       </c>
       <c r="H34">
-        <v>0.03029167877624029</v>
+        <v>0.003079271634747332</v>
       </c>
       <c r="I34">
-        <v>-0.01651294427121397</v>
+        <v>-0.002590929846024061</v>
       </c>
       <c r="J34">
-        <v>-0.0389730703848077</v>
+        <v>-0.008228017937427633</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.584713817344837E-06</v>
+        <v>-0.2748503712792732</v>
       </c>
       <c r="C35">
-        <v>0.0007863082577983919</v>
+        <v>0.05209376301277853</v>
       </c>
       <c r="D35">
-        <v>0.00121308933402651</v>
+        <v>0.2068901755660408</v>
       </c>
       <c r="E35">
-        <v>0.001787606888006548</v>
+        <v>0.3915119311663565</v>
       </c>
       <c r="F35">
-        <v>0.001533395778630297</v>
+        <v>0.3997525001627594</v>
       </c>
       <c r="G35">
-        <v>0.001190519203529059</v>
+        <v>0.3207507513385074</v>
       </c>
       <c r="H35">
-        <v>0.000683481242763121</v>
+        <v>0.05543483992932147</v>
       </c>
       <c r="I35">
-        <v>-0.0001278659050628722</v>
+        <v>-0.1919952957436116</v>
       </c>
       <c r="J35">
-        <v>-0.0009034851994345625</v>
+        <v>-0.4170099948044084</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2455319287020757</v>
+        <v>-0.2372788652452514</v>
       </c>
       <c r="C36">
-        <v>0.685766717498978</v>
+        <v>0.07261199513129422</v>
       </c>
       <c r="D36">
-        <v>0.1170170815716255</v>
+        <v>0.1313446454683329</v>
       </c>
       <c r="E36">
-        <v>1.044502984893147</v>
+        <v>0.4116498268631273</v>
       </c>
       <c r="F36">
-        <v>0.5452736618894332</v>
+        <v>0.3794436435914545</v>
       </c>
       <c r="G36">
-        <v>-0.145926241109191</v>
+        <v>0.2436011717212861</v>
       </c>
       <c r="H36">
-        <v>0.2273968454000027</v>
+        <v>0.003624188002188734</v>
       </c>
       <c r="I36">
-        <v>-0.4071225903688575</v>
+        <v>-0.1461453147384113</v>
       </c>
       <c r="J36">
-        <v>-0.7440047148209195</v>
+        <v>-0.2380144458177117</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.2029912357842068</v>
+        <v>-0.0117958208280189</v>
       </c>
       <c r="C37">
-        <v>0.2021187627189504</v>
+        <v>0.009012079974686305</v>
       </c>
       <c r="D37">
-        <v>0.184642475248117</v>
+        <v>0.009919529453101395</v>
       </c>
       <c r="E37">
-        <v>0.4538528530845855</v>
+        <v>0.01649142883914352</v>
       </c>
       <c r="F37">
-        <v>0.2849440786769688</v>
+        <v>0.02284907047068849</v>
       </c>
       <c r="G37">
-        <v>0.1897161457277362</v>
+        <v>0.01643825770131442</v>
       </c>
       <c r="H37">
-        <v>0.05810517175073091</v>
+        <v>8.535585256738497E-05</v>
       </c>
       <c r="I37">
-        <v>-0.07936802032088368</v>
+        <v>-0.002456893990206235</v>
       </c>
       <c r="J37">
-        <v>-0.214998623242899</v>
+        <v>-0.01355988838331881</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.06220317767156541</v>
+        <v>-0.01143141369201953</v>
       </c>
       <c r="C38">
-        <v>0.0642797395841198</v>
+        <v>0.008305215171308873</v>
       </c>
       <c r="D38">
-        <v>0.07015392684364381</v>
+        <v>0.01084753166066642</v>
       </c>
       <c r="E38">
-        <v>0.1297077037091495</v>
+        <v>0.01906669938371587</v>
       </c>
       <c r="F38">
-        <v>0.1208802300253831</v>
+        <v>0.01877765544102415</v>
       </c>
       <c r="G38">
-        <v>0.08907269958963224</v>
+        <v>0.01578957771935753</v>
       </c>
       <c r="H38">
-        <v>0.01984381353606779</v>
+        <v>0.00462574689280994</v>
       </c>
       <c r="I38">
-        <v>-0.01514105365896715</v>
+        <v>-0.002429914448281311</v>
       </c>
       <c r="J38">
-        <v>-0.0762427131667108</v>
+        <v>-0.01445916212069586</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.01023744674424033</v>
+        <v>-0.443789072838697</v>
       </c>
       <c r="C39">
-        <v>0.008653146776370736</v>
+        <v>0.2118931019847866</v>
       </c>
       <c r="D39">
-        <v>0.01389179412307684</v>
+        <v>0.455023823942902</v>
       </c>
       <c r="E39">
-        <v>0.01975333653144747</v>
+        <v>0.6791068142797286</v>
       </c>
       <c r="F39">
-        <v>0.0161123931085995</v>
+        <v>0.7807622029396131</v>
       </c>
       <c r="G39">
-        <v>0.01362143653828955</v>
+        <v>0.07491888764847346</v>
       </c>
       <c r="H39">
-        <v>0.002795099694626785</v>
+        <v>-0.005251040371345927</v>
       </c>
       <c r="I39">
-        <v>-0.001308406698740442</v>
+        <v>-0.2074724533813068</v>
       </c>
       <c r="J39">
-        <v>-0.00798887775283337</v>
+        <v>-0.4127115182212703</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.344007270356203E-06</v>
+        <v>-0.01261361468267043</v>
       </c>
       <c r="C40">
-        <v>0.0006260764595525264</v>
+        <v>0.006114735018167713</v>
       </c>
       <c r="D40">
-        <v>0.0006749732012493559</v>
+        <v>0.01268566105180114</v>
       </c>
       <c r="E40">
-        <v>0.001780444663377986</v>
+        <v>0.02173284997215864</v>
       </c>
       <c r="F40">
-        <v>0.001545874071977037</v>
+        <v>0.02070788714217411</v>
       </c>
       <c r="G40">
-        <v>0.001147523925645645</v>
+        <v>0.01835059892653052</v>
       </c>
       <c r="H40">
-        <v>0.000253477248684566</v>
+        <v>0.003731891895139333</v>
       </c>
       <c r="I40">
-        <v>-0.0001279052356098369</v>
+        <v>-0.002590239698062497</v>
       </c>
       <c r="J40">
-        <v>-0.001032074175614739</v>
+        <v>-0.00841325609608715</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.007243197043892919</v>
+        <v>-0.01176794621399764</v>
       </c>
       <c r="C41">
-        <v>0.009940334856333865</v>
+        <v>0.008629853750025944</v>
       </c>
       <c r="D41">
-        <v>0.01129122825377941</v>
+        <v>0.01586391258335111</v>
       </c>
       <c r="E41">
-        <v>0.01439247560305351</v>
+        <v>0.01937120702454975</v>
       </c>
       <c r="F41">
-        <v>0.01489623556260706</v>
+        <v>0.0205647092011655</v>
       </c>
       <c r="G41">
-        <v>0.009556083593110309</v>
+        <v>0.01623887834918334</v>
       </c>
       <c r="H41">
-        <v>0.001091795650156077</v>
+        <v>-0.001279670594912642</v>
       </c>
       <c r="I41">
-        <v>-0.00128139805632051</v>
+        <v>-0.002417579454416659</v>
       </c>
       <c r="J41">
-        <v>-0.01010562600754985</v>
+        <v>-0.005544028665683241</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1739551326583421</v>
+        <v>-0.01065628779858757</v>
       </c>
       <c r="C42">
-        <v>0.1525064114035029</v>
+        <v>0.007373957554061428</v>
       </c>
       <c r="D42">
-        <v>0.1828916953751377</v>
+        <v>0.01066622571072331</v>
       </c>
       <c r="E42">
-        <v>0.2427458503110432</v>
+        <v>0.02074663459887155</v>
       </c>
       <c r="F42">
-        <v>0.4036884973539151</v>
+        <v>0.01704682612248891</v>
       </c>
       <c r="G42">
-        <v>0.2266270021736051</v>
+        <v>0.01864247502599175</v>
       </c>
       <c r="H42">
-        <v>0.01329666131450778</v>
+        <v>-0.001361055023823185</v>
       </c>
       <c r="I42">
-        <v>-0.05892837593065514</v>
+        <v>-0.002408295876579206</v>
       </c>
       <c r="J42">
-        <v>-0.2024625182813863</v>
+        <v>-0.007113497799193421</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01153428756380239</v>
+        <v>-7.014710402229606E-06</v>
       </c>
       <c r="C43">
-        <v>0.008005559427672291</v>
+        <v>0.0009513761846809782</v>
       </c>
       <c r="D43">
-        <v>0.01589611893860869</v>
+        <v>0.001644683517167252</v>
       </c>
       <c r="E43">
-        <v>0.01956790209905115</v>
+        <v>0.001951376133594654</v>
       </c>
       <c r="F43">
-        <v>0.02078920457962104</v>
+        <v>0.002069140326786961</v>
       </c>
       <c r="G43">
-        <v>0.01229824227496782</v>
+        <v>0.001645676745285174</v>
       </c>
       <c r="H43">
-        <v>0.0002726840995533258</v>
+        <v>-1.705912087031438E-05</v>
       </c>
       <c r="I43">
-        <v>-0.001264369290105875</v>
+        <v>-0.0002382449520659644</v>
       </c>
       <c r="J43">
-        <v>-0.005675494429113618</v>
+        <v>-0.0001399442991914068</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.06079211353667459</v>
+        <v>-0.01518847174240062</v>
       </c>
       <c r="C44">
-        <v>0.07023128555961135</v>
+        <v>0.009555778043038532</v>
       </c>
       <c r="D44">
-        <v>0.04151463308544998</v>
+        <v>0.01464650338890659</v>
       </c>
       <c r="E44">
-        <v>0.1399933373741747</v>
+        <v>0.02123156756269931</v>
       </c>
       <c r="F44">
-        <v>0.1142926522827398</v>
+        <v>0.02260306352776511</v>
       </c>
       <c r="G44">
-        <v>0.1042475031809029</v>
+        <v>0.0215110894356328</v>
       </c>
       <c r="H44">
-        <v>0.006782840346149563</v>
+        <v>0.000926965755402078</v>
       </c>
       <c r="I44">
-        <v>-0.012966882311024</v>
+        <v>-0.002489302407481587</v>
       </c>
       <c r="J44">
-        <v>-0.04273526745111537</v>
+        <v>-0.009690679319491894</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.427320761821823E-06</v>
+        <v>-2.65122816677321E-06</v>
       </c>
       <c r="C45">
-        <v>0.001050650806831558</v>
+        <v>0.0009303572193744528</v>
       </c>
       <c r="D45">
-        <v>0.001192615714677447</v>
+        <v>0.0009611615464810132</v>
       </c>
       <c r="E45">
-        <v>0.001812942191049235</v>
+        <v>0.001977697884979295</v>
       </c>
       <c r="F45">
-        <v>0.00142043157080432</v>
+        <v>0.002176798118728004</v>
       </c>
       <c r="G45">
-        <v>0.001024525402777966</v>
+        <v>0.00186266909253906</v>
       </c>
       <c r="H45">
-        <v>0.0003037002345634549</v>
+        <v>0.0003982952952876917</v>
       </c>
       <c r="I45">
-        <v>-0.0001272407239380149</v>
+        <v>-0.0002370240612428076</v>
       </c>
       <c r="J45">
-        <v>-0.0006285238058349555</v>
+        <v>-0.001048719195986312</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.563037941432269E-06</v>
+        <v>-0.09586603651869863</v>
       </c>
       <c r="C46">
-        <v>0.0006245059735470777</v>
+        <v>0.06244243891976414</v>
       </c>
       <c r="D46">
-        <v>0.001087641758844543</v>
+        <v>0.1161687792223478</v>
       </c>
       <c r="E46">
-        <v>0.001752981087715215</v>
+        <v>0.1618146975606349</v>
       </c>
       <c r="F46">
-        <v>0.001672287516749206</v>
+        <v>0.1458220903352158</v>
       </c>
       <c r="G46">
-        <v>0.00126509544290754</v>
+        <v>0.09461452799786174</v>
       </c>
       <c r="H46">
-        <v>9.366267522892679E-05</v>
+        <v>-0.005434947076141749</v>
       </c>
       <c r="I46">
-        <v>-0.0001278670593311041</v>
+        <v>-0.02996107105807938</v>
       </c>
       <c r="J46">
-        <v>-0.001073502583979164</v>
+        <v>-0.06336011601770453</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.2720398502187821</v>
+        <v>-0.3008615995281349</v>
       </c>
       <c r="C47">
-        <v>0.6813143540234922</v>
+        <v>0.111955248629899</v>
       </c>
       <c r="D47">
-        <v>0.3627692450972989</v>
+        <v>0.00430501309077532</v>
       </c>
       <c r="E47">
-        <v>0.5798443097245334</v>
+        <v>0.4973151924063575</v>
       </c>
       <c r="F47">
-        <v>0.443087084436084</v>
+        <v>0.4256570845643029</v>
       </c>
       <c r="G47">
-        <v>0.2943659769962372</v>
+        <v>0.4390598797400347</v>
       </c>
       <c r="H47">
-        <v>0.1350287202110315</v>
+        <v>0.0306316336568254</v>
       </c>
       <c r="I47">
-        <v>-0.2578936756439466</v>
+        <v>-0.1341449306643269</v>
       </c>
       <c r="J47">
-        <v>-0.5023675365922137</v>
+        <v>-0.3170594579716773</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01127440992158067</v>
+        <v>-0.1011314362639623</v>
       </c>
       <c r="C48">
-        <v>0.01200440761714962</v>
+        <v>0.0573234494291237</v>
       </c>
       <c r="D48">
-        <v>0.01507615233692319</v>
+        <v>0.1174189068370594</v>
       </c>
       <c r="E48">
-        <v>0.01908887797666794</v>
+        <v>0.1839889538335012</v>
       </c>
       <c r="F48">
-        <v>0.01701103919054905</v>
+        <v>0.1233131872218848</v>
       </c>
       <c r="G48">
-        <v>0.01407885128859428</v>
+        <v>0.1097113926524784</v>
       </c>
       <c r="H48">
-        <v>0.002724352728398154</v>
+        <v>0.00957447657699049</v>
       </c>
       <c r="I48">
-        <v>-0.001323219956892687</v>
+        <v>-0.03456720895542886</v>
       </c>
       <c r="J48">
-        <v>-0.006981225896294584</v>
+        <v>-0.05384700843796079</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-2.164385137577085E-06</v>
+        <v>-0.21513253483926</v>
       </c>
       <c r="C49">
-        <v>0.0007526994404464856</v>
+        <v>0.1085086335310604</v>
       </c>
       <c r="D49">
-        <v>0.001492922020864353</v>
+        <v>0.170744105817471</v>
       </c>
       <c r="E49">
-        <v>0.002223132780782903</v>
+        <v>0.4577235919424524</v>
       </c>
       <c r="F49">
-        <v>0.001757656867262561</v>
+        <v>0.2876981132486963</v>
       </c>
       <c r="G49">
-        <v>0.001399806434812314</v>
+        <v>0.217630913643881</v>
       </c>
       <c r="H49">
-        <v>0.0001433527577001474</v>
+        <v>0.03352415449108113</v>
       </c>
       <c r="I49">
-        <v>-0.0001276821168719225</v>
+        <v>-0.09959858710343598</v>
       </c>
       <c r="J49">
-        <v>-0.001051255162391446</v>
+        <v>-0.1996664667474902</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.432285533731808E-06</v>
+        <v>-0.01837171228782514</v>
       </c>
       <c r="C50">
-        <v>0.001036985638511783</v>
+        <v>0.01247462336203487</v>
       </c>
       <c r="D50">
-        <v>0.0007230694198291557</v>
+        <v>0.01718755126476821</v>
       </c>
       <c r="E50">
-        <v>0.00172458489639762</v>
+        <v>0.02510338938018321</v>
       </c>
       <c r="F50">
-        <v>0.001642904418332668</v>
+        <v>0.02385754934036673</v>
       </c>
       <c r="G50">
-        <v>0.001065493700732133</v>
+        <v>0.02176801301759601</v>
       </c>
       <c r="H50">
-        <v>0.0006337868489608798</v>
+        <v>0.002864611592192063</v>
       </c>
       <c r="I50">
-        <v>-0.0001276372488381877</v>
+        <v>-0.002493377893834862</v>
       </c>
       <c r="J50">
-        <v>-0.0007678785842395032</v>
+        <v>-0.008434152226382321</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.238902811153248</v>
+        <v>-0.6154581415975932</v>
       </c>
       <c r="C51">
-        <v>0.1498679301662834</v>
+        <v>0.1772239123512285</v>
       </c>
       <c r="D51">
-        <v>0.1963099886436112</v>
+        <v>0.3990905670681499</v>
       </c>
       <c r="E51">
-        <v>0.481922671804623</v>
+        <v>1.237142456061741</v>
       </c>
       <c r="F51">
-        <v>0.4353826797714231</v>
+        <v>0.5227607499653387</v>
       </c>
       <c r="G51">
-        <v>0.2972882138834017</v>
+        <v>0.181211985141389</v>
       </c>
       <c r="H51">
-        <v>0.1136007934947368</v>
+        <v>-0.1830094619006152</v>
       </c>
       <c r="I51">
-        <v>-0.1556626153260191</v>
+        <v>-0.3702269544755513</v>
       </c>
       <c r="J51">
-        <v>-0.3169406111168757</v>
+        <v>-0.6585591457783655</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.479375587795235E-06</v>
+        <v>-0.2473013971676749</v>
       </c>
       <c r="C52">
-        <v>0.0009686482010205914</v>
+        <v>0.1051229816143825</v>
       </c>
       <c r="D52">
-        <v>0.001241329390314321</v>
+        <v>0.1761950720861519</v>
       </c>
       <c r="E52">
-        <v>0.001753372602666999</v>
+        <v>0.4602175432508361</v>
       </c>
       <c r="F52">
-        <v>0.001749539605791747</v>
+        <v>0.3561803577215148</v>
       </c>
       <c r="G52">
-        <v>0.0009852909436582112</v>
+        <v>0.2319143938260188</v>
       </c>
       <c r="H52">
-        <v>-0.0001724926076619035</v>
+        <v>-0.03704596415554565</v>
       </c>
       <c r="I52">
-        <v>-0.0001277113682683417</v>
+        <v>-0.06619043411774579</v>
       </c>
       <c r="J52">
-        <v>-0.0002701680642004725</v>
+        <v>-0.1995495089246913</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1937059702415571</v>
+        <v>-0.009086683946712413</v>
       </c>
       <c r="C53">
-        <v>0.202736164151599</v>
+        <v>0.007844025514297769</v>
       </c>
       <c r="D53">
-        <v>0.2343130566305985</v>
+        <v>0.00898679851280733</v>
       </c>
       <c r="E53">
-        <v>0.2298938642231075</v>
+        <v>0.01940237354762586</v>
       </c>
       <c r="F53">
-        <v>0.2934770488505391</v>
+        <v>0.01845604593126708</v>
       </c>
       <c r="G53">
-        <v>0.3143274445871932</v>
+        <v>0.01035126795806128</v>
       </c>
       <c r="H53">
-        <v>0.09286198862706095</v>
+        <v>0.003063855468665166</v>
       </c>
       <c r="I53">
-        <v>-0.08586336498984048</v>
+        <v>-0.002435970850640359</v>
       </c>
       <c r="J53">
-        <v>-0.265131927241038</v>
+        <v>-0.01122352326622727</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.1766294822384755</v>
+        <v>-0.09563606195973885</v>
       </c>
       <c r="C54">
-        <v>0.3006548774907231</v>
+        <v>0.05650902909628306</v>
       </c>
       <c r="D54">
-        <v>0.1898031181274852</v>
+        <v>0.09282274423236579</v>
       </c>
       <c r="E54">
-        <v>0.4207542342020454</v>
+        <v>0.1597914446531069</v>
       </c>
       <c r="F54">
-        <v>0.3972350642114081</v>
+        <v>0.160097082399666</v>
       </c>
       <c r="G54">
-        <v>0.2809939207850576</v>
+        <v>0.08814634194264856</v>
       </c>
       <c r="H54">
-        <v>0.05394722032619293</v>
+        <v>0.00633241732956577</v>
       </c>
       <c r="I54">
-        <v>-0.1657825309213552</v>
+        <v>-0.0313170320277033</v>
       </c>
       <c r="J54">
-        <v>-0.3237500441857452</v>
+        <v>-0.08828397237983576</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.01430900982442736</v>
+        <v>-0.01220033777044927</v>
       </c>
       <c r="C55">
-        <v>0.01026098023264444</v>
+        <v>0.01049147490024062</v>
       </c>
       <c r="D55">
-        <v>0.01606666138244692</v>
+        <v>0.01218404841362889</v>
       </c>
       <c r="E55">
-        <v>0.02401880429252154</v>
+        <v>0.02053383438543538</v>
       </c>
       <c r="F55">
-        <v>0.0206987445455878</v>
+        <v>0.02002754737097667</v>
       </c>
       <c r="G55">
-        <v>0.01269652270959654</v>
+        <v>0.0163092336685059</v>
       </c>
       <c r="H55">
-        <v>0.0003262315909251688</v>
+        <v>0.002000937343433132</v>
       </c>
       <c r="I55">
-        <v>-0.001281452777807092</v>
+        <v>-0.002482569228637688</v>
       </c>
       <c r="J55">
-        <v>-0.008770960700408125</v>
+        <v>-0.01104113157769693</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.519804021876022E-06</v>
+        <v>-0.5745399037785136</v>
       </c>
       <c r="C56">
-        <v>0.000730813261718633</v>
+        <v>0.4486946918633893</v>
       </c>
       <c r="D56">
-        <v>0.0010511049759816</v>
+        <v>-0.006260361932458543</v>
       </c>
       <c r="E56">
-        <v>0.00173669790684314</v>
+        <v>0.8681530844537853</v>
       </c>
       <c r="F56">
-        <v>0.001612326958495962</v>
+        <v>0.5684489060837087</v>
       </c>
       <c r="G56">
-        <v>0.001259441497111586</v>
+        <v>0.4315732713064045</v>
       </c>
       <c r="H56">
-        <v>0.0003752738695737775</v>
+        <v>0.104258423216865</v>
       </c>
       <c r="I56">
-        <v>-0.0001278048300181528</v>
+        <v>-0.3854260697320694</v>
       </c>
       <c r="J56">
-        <v>-0.0009776012777710755</v>
+        <v>-0.7653518872444163</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.009001440769680756</v>
+        <v>-0.001337729098100816</v>
       </c>
       <c r="C57">
-        <v>0.009755332114582302</v>
+        <v>0.001123267801460494</v>
       </c>
       <c r="D57">
-        <v>0.01067748488826581</v>
+        <v>0.001525518034053115</v>
       </c>
       <c r="E57">
-        <v>0.01692162538952478</v>
+        <v>0.002425018388878046</v>
       </c>
       <c r="F57">
-        <v>0.01834860603648959</v>
+        <v>0.001898667450649476</v>
       </c>
       <c r="G57">
-        <v>0.01078293433485753</v>
+        <v>0.001686407656213363</v>
       </c>
       <c r="H57">
-        <v>0.004427725070578696</v>
+        <v>4.072696863351657E-05</v>
       </c>
       <c r="I57">
-        <v>-0.001338947667694547</v>
+        <v>-0.0002363740940549438</v>
       </c>
       <c r="J57">
-        <v>-0.008526707719942307</v>
+        <v>-0.000990140397813123</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.05230797082884527</v>
+        <v>-0.01665230814335556</v>
       </c>
       <c r="C58">
-        <v>0.02163450582351982</v>
+        <v>0.009749493078377726</v>
       </c>
       <c r="D58">
-        <v>0.07629181690104526</v>
+        <v>0.01589483154259268</v>
       </c>
       <c r="E58">
-        <v>0.1069050177242457</v>
+        <v>0.0249233845290563</v>
       </c>
       <c r="F58">
-        <v>0.1113427054363214</v>
+        <v>0.02281994057897417</v>
       </c>
       <c r="G58">
-        <v>0.07789570280740771</v>
+        <v>0.02158822445315251</v>
       </c>
       <c r="H58">
-        <v>0.04496761164368555</v>
+        <v>-0.001235525891423482</v>
       </c>
       <c r="I58">
-        <v>-0.01561677323379703</v>
+        <v>-0.002450999015594662</v>
       </c>
       <c r="J58">
-        <v>-0.09253098880146426</v>
+        <v>-0.007078330401739321</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.007381423186496299</v>
+        <v>-0.09342233575795272</v>
       </c>
       <c r="C59">
-        <v>0.01008650321105341</v>
+        <v>0.06063971883324774</v>
       </c>
       <c r="D59">
-        <v>0.0100216892026295</v>
+        <v>0.1117050902452266</v>
       </c>
       <c r="E59">
-        <v>0.01722203300521133</v>
+        <v>0.1379673928132825</v>
       </c>
       <c r="F59">
-        <v>0.01530837251787896</v>
+        <v>0.1566617876211797</v>
       </c>
       <c r="G59">
-        <v>0.009972136607927324</v>
+        <v>0.1175409445850569</v>
       </c>
       <c r="H59">
-        <v>-0.0001026579897940309</v>
+        <v>0.007515958379646449</v>
       </c>
       <c r="I59">
-        <v>-0.001298615752972423</v>
+        <v>-0.03156380169112372</v>
       </c>
       <c r="J59">
-        <v>-0.005519365009181343</v>
+        <v>-0.04846651032433628</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.01052939947181417</v>
+        <v>-0.2298446421543549</v>
       </c>
       <c r="C60">
-        <v>0.007773402628227022</v>
+        <v>0.0768289722300825</v>
       </c>
       <c r="D60">
-        <v>0.01244894186419683</v>
+        <v>0.1206605261301979</v>
       </c>
       <c r="E60">
-        <v>0.0207701834813625</v>
+        <v>0.4668418562836412</v>
       </c>
       <c r="F60">
-        <v>0.01816104024470147</v>
+        <v>0.3221255322950339</v>
       </c>
       <c r="G60">
-        <v>0.0129243391961307</v>
+        <v>0.1649125245002971</v>
       </c>
       <c r="H60">
-        <v>0.002145304792052536</v>
+        <v>-0.02976646748070155</v>
       </c>
       <c r="I60">
-        <v>-0.001299394249513645</v>
+        <v>-0.162583787891697</v>
       </c>
       <c r="J60">
-        <v>-0.007215548299851046</v>
+        <v>-0.3354340437634875</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.1169701517162684</v>
+        <v>-0.2213666211223123</v>
       </c>
       <c r="C61">
-        <v>0.4934458270592533</v>
+        <v>0.04517766371500032</v>
       </c>
       <c r="D61">
-        <v>0.4377733890406285</v>
+        <v>0.09831308975920409</v>
       </c>
       <c r="E61">
-        <v>0.4764154827068624</v>
+        <v>0.4325306922053717</v>
       </c>
       <c r="F61">
-        <v>0.4226776056775907</v>
+        <v>0.3228768788571425</v>
       </c>
       <c r="G61">
-        <v>0.293075741953911</v>
+        <v>0.2668738738310985</v>
       </c>
       <c r="H61">
-        <v>0.3054473510918652</v>
+        <v>-0.02933277280020138</v>
       </c>
       <c r="I61">
-        <v>-0.7065559996332795</v>
+        <v>-0.1180259497156105</v>
       </c>
       <c r="J61">
-        <v>-0.7438701909029007</v>
+        <v>-0.2543984758461223</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.145315296405303</v>
+        <v>-0.6009305239899406</v>
       </c>
       <c r="C62">
-        <v>0.02077721339103596</v>
+        <v>0.4311933507160239</v>
       </c>
       <c r="D62">
-        <v>0.1396830445486131</v>
+        <v>0.07450136963433586</v>
       </c>
       <c r="E62">
-        <v>0.3910573081314977</v>
+        <v>1.012751017522278</v>
       </c>
       <c r="F62">
-        <v>0.303641526497159</v>
+        <v>0.8048309644290011</v>
       </c>
       <c r="G62">
-        <v>0.1049087532332894</v>
+        <v>0.417288730247933</v>
       </c>
       <c r="H62">
-        <v>0.09786648967426931</v>
+        <v>-0.02836381738156869</v>
       </c>
       <c r="I62">
-        <v>-0.05689337899036719</v>
+        <v>-0.3197792619857118</v>
       </c>
       <c r="J62">
-        <v>-0.2562492874026646</v>
+        <v>-0.3218077276193482</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.008067492181768931</v>
+        <v>-0.4748892460832603</v>
       </c>
       <c r="C63">
-        <v>0.006262225645945979</v>
+        <v>0.1835400827825552</v>
       </c>
       <c r="D63">
-        <v>0.01210530225199252</v>
+        <v>0.04944122783073909</v>
       </c>
       <c r="E63">
-        <v>0.0183704856779778</v>
+        <v>0.9788753307692998</v>
       </c>
       <c r="F63">
-        <v>0.01515865884700853</v>
+        <v>0.5930833650488704</v>
       </c>
       <c r="G63">
-        <v>0.009141443081262338</v>
+        <v>0.4059132056209124</v>
       </c>
       <c r="H63">
-        <v>-0.001231700992118611</v>
+        <v>-0.1937208852015121</v>
       </c>
       <c r="I63">
-        <v>-0.001305264116454427</v>
+        <v>-0.2479629675624642</v>
       </c>
       <c r="J63">
-        <v>-0.01005126670442482</v>
+        <v>-0.3948322973926373</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1111474677787389</v>
+        <v>-0.2210874029583755</v>
       </c>
       <c r="C64">
-        <v>0.1664431115347162</v>
+        <v>0.1119434798666137</v>
       </c>
       <c r="D64">
-        <v>0.115330019507996</v>
+        <v>0.1400027163367795</v>
       </c>
       <c r="E64">
-        <v>0.2712903631772975</v>
+        <v>0.430584870883799</v>
       </c>
       <c r="F64">
-        <v>0.2905754353846435</v>
+        <v>0.297006513506046</v>
       </c>
       <c r="G64">
-        <v>0.1299185766577381</v>
+        <v>0.2989078322170804</v>
       </c>
       <c r="H64">
-        <v>0.03815053602230945</v>
+        <v>-0.04427232657142077</v>
       </c>
       <c r="I64">
-        <v>-0.07902372377974892</v>
+        <v>-0.0827937032598073</v>
       </c>
       <c r="J64">
-        <v>-0.2709661767138769</v>
+        <v>-0.1847796980513962</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.2354230827693986</v>
+        <v>-0.4538144292435696</v>
       </c>
       <c r="C65">
-        <v>0.2392002175511514</v>
+        <v>0.04796785603855282</v>
       </c>
       <c r="D65">
-        <v>0.490147308444553</v>
+        <v>-0.1701832157418981</v>
       </c>
       <c r="E65">
-        <v>1.263740726606478</v>
+        <v>0.7936771690878662</v>
       </c>
       <c r="F65">
-        <v>0.352041175162868</v>
+        <v>0.7450874714403108</v>
       </c>
       <c r="G65">
-        <v>-0.07624086455350085</v>
+        <v>0.5014426417789335</v>
       </c>
       <c r="H65">
-        <v>0.05470463342843854</v>
+        <v>0.08124909919277661</v>
       </c>
       <c r="I65">
-        <v>-0.736684065335637</v>
+        <v>-0.3960340550612281</v>
       </c>
       <c r="J65">
-        <v>-0.9005365407721283</v>
+        <v>-0.576302936427974</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.008102141952990851</v>
+        <v>-0.1298717431142075</v>
       </c>
       <c r="C66">
-        <v>0.003642803125694282</v>
+        <v>0.05801801265291535</v>
       </c>
       <c r="D66">
-        <v>0.0113215648601283</v>
+        <v>0.1342895493218586</v>
       </c>
       <c r="E66">
-        <v>0.01933031896407689</v>
+        <v>0.1870885479223721</v>
       </c>
       <c r="F66">
-        <v>0.01450218860334131</v>
+        <v>0.1540190694212838</v>
       </c>
       <c r="G66">
-        <v>0.01250179936212436</v>
+        <v>0.1205216087993674</v>
       </c>
       <c r="H66">
-        <v>0.002139626567385295</v>
+        <v>0.0004878229020369131</v>
       </c>
       <c r="I66">
-        <v>-0.001294821472984718</v>
+        <v>-0.02812266355265382</v>
       </c>
       <c r="J66">
-        <v>-0.007633851848616124</v>
+        <v>-0.1046982936751029</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.009066580713826735</v>
+        <v>-0.2490851763275981</v>
       </c>
       <c r="C67">
-        <v>0.005609294443582192</v>
+        <v>0.11654205626846</v>
       </c>
       <c r="D67">
-        <v>0.009033996171264554</v>
+        <v>0.2832696546830476</v>
       </c>
       <c r="E67">
-        <v>0.01815628868710376</v>
+        <v>0.3562751164679008</v>
       </c>
       <c r="F67">
-        <v>0.01798786466735014</v>
+        <v>0.3066249246229524</v>
       </c>
       <c r="G67">
-        <v>0.01085710374929177</v>
+        <v>0.2484218035040152</v>
       </c>
       <c r="H67">
-        <v>0.001516834047280668</v>
+        <v>0.06491800961531233</v>
       </c>
       <c r="I67">
-        <v>-0.001286036702119779</v>
+        <v>-0.1206405817224775</v>
       </c>
       <c r="J67">
-        <v>-0.01267994995685331</v>
+        <v>-0.2721893332851258</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-5.251800700939992E-06</v>
+        <v>-0.2398285729642074</v>
       </c>
       <c r="C68">
-        <v>0.0004512499924829113</v>
+        <v>0.2094727728795196</v>
       </c>
       <c r="D68">
-        <v>0.001771177776243511</v>
+        <v>0.1133307469224946</v>
       </c>
       <c r="E68">
-        <v>0.002219835929240484</v>
+        <v>0.550435478841963</v>
       </c>
       <c r="F68">
-        <v>0.001782216211064438</v>
+        <v>0.354618356371698</v>
       </c>
       <c r="G68">
-        <v>0.00102602407180942</v>
+        <v>0.2825024210002467</v>
       </c>
       <c r="H68">
-        <v>0.0004059004395442149</v>
+        <v>0.01710759397302196</v>
       </c>
       <c r="I68">
-        <v>-0.0001284898699271244</v>
+        <v>-0.1909456770358705</v>
       </c>
       <c r="J68">
-        <v>-0.0007956701209563005</v>
+        <v>-0.2288680939954006</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.198180995494903</v>
+        <v>-0.01199071601026092</v>
       </c>
       <c r="C69">
-        <v>0.1440283681910637</v>
+        <v>0.005743264164188795</v>
       </c>
       <c r="D69">
-        <v>0.2687273861781392</v>
+        <v>0.01264460623783649</v>
       </c>
       <c r="E69">
-        <v>0.5598618876857</v>
+        <v>0.02145916645801315</v>
       </c>
       <c r="F69">
-        <v>0.3126783605328166</v>
+        <v>0.0190247648502501</v>
       </c>
       <c r="G69">
-        <v>0.2071353462510854</v>
+        <v>0.01770271958760093</v>
       </c>
       <c r="H69">
-        <v>0.03241145389700222</v>
+        <v>0.002769214196272324</v>
       </c>
       <c r="I69">
-        <v>-0.153089738094386</v>
+        <v>-0.002372765033705726</v>
       </c>
       <c r="J69">
-        <v>-0.4473858199575135</v>
+        <v>-0.01062085395625769</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.007738419247867751</v>
+        <v>-0.3420807691646282</v>
       </c>
       <c r="C70">
-        <v>0.006108089324943803</v>
+        <v>0.2846596072237566</v>
       </c>
       <c r="D70">
-        <v>0.01040278132760031</v>
+        <v>0.103822544191111</v>
       </c>
       <c r="E70">
-        <v>0.01782942721012401</v>
+        <v>0.6370496483597111</v>
       </c>
       <c r="F70">
-        <v>0.01590513751938267</v>
+        <v>0.3280010229405624</v>
       </c>
       <c r="G70">
-        <v>0.01116131317374033</v>
+        <v>0.3139168320238019</v>
       </c>
       <c r="H70">
-        <v>0.003454057289044399</v>
+        <v>0.07420345171027828</v>
       </c>
       <c r="I70">
-        <v>-0.001281674922569577</v>
+        <v>-0.2295774927641235</v>
       </c>
       <c r="J70">
-        <v>-0.00704656790714784</v>
+        <v>-0.3261124939127655</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2641104749413008</v>
+        <v>-0.01155537221951956</v>
       </c>
       <c r="C71">
-        <v>0.1513061929876877</v>
+        <v>0.008624452718645518</v>
       </c>
       <c r="D71">
-        <v>0.3832695778916589</v>
+        <v>0.01185595674361824</v>
       </c>
       <c r="E71">
-        <v>0.9118931193568821</v>
+        <v>0.01996095290994408</v>
       </c>
       <c r="F71">
-        <v>0.3641234815639988</v>
+        <v>0.01757102653927146</v>
       </c>
       <c r="G71">
-        <v>0.1349269589230898</v>
+        <v>0.01578440048867485</v>
       </c>
       <c r="H71">
-        <v>-0.001494037065014907</v>
+        <v>0.004011465935586312</v>
       </c>
       <c r="I71">
-        <v>-0.3324689107116674</v>
+        <v>-0.002484138399436841</v>
       </c>
       <c r="J71">
-        <v>-0.7739795680961973</v>
+        <v>-0.0145068326660111</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.01045237422334538</v>
+        <v>-0.01544192484445046</v>
       </c>
       <c r="C72">
-        <v>0.009736582689951345</v>
+        <v>0.0115166290556803</v>
       </c>
       <c r="D72">
-        <v>0.01192857005876557</v>
+        <v>0.01934578211439743</v>
       </c>
       <c r="E72">
-        <v>0.01711930917107585</v>
+        <v>0.02309275074333719</v>
       </c>
       <c r="F72">
-        <v>0.01722051427171279</v>
+        <v>0.02005384833034365</v>
       </c>
       <c r="G72">
-        <v>0.01693224527854116</v>
+        <v>0.01916743047046833</v>
       </c>
       <c r="H72">
-        <v>0.005707501975693917</v>
+        <v>-0.001911416857411705</v>
       </c>
       <c r="I72">
-        <v>-0.001268234528854985</v>
+        <v>-0.002339490643317653</v>
       </c>
       <c r="J72">
-        <v>-0.006904490062884622</v>
+        <v>-0.006722473667201612</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.09620784120295262</v>
+        <v>-0.01168297939475433</v>
       </c>
       <c r="C73">
-        <v>0.8951398115367715</v>
+        <v>0.0100709552151332</v>
       </c>
       <c r="D73">
-        <v>0.07414330076521565</v>
+        <v>0.01249190945939538</v>
       </c>
       <c r="E73">
-        <v>0.766994857812608</v>
+        <v>0.01760124556937035</v>
       </c>
       <c r="F73">
-        <v>0.4628091169331778</v>
+        <v>0.02038873761399623</v>
       </c>
       <c r="G73">
-        <v>0.009001233396567896</v>
+        <v>0.01754457540114346</v>
       </c>
       <c r="H73">
-        <v>0.1598076993208067</v>
+        <v>0.0006551269526730703</v>
       </c>
       <c r="I73">
-        <v>-0.7116730914964625</v>
+        <v>-0.002467862582907031</v>
       </c>
       <c r="J73">
-        <v>-0.7317458885995519</v>
+        <v>-0.01088354531878972</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.009803235119536022</v>
+        <v>-0.4979173161856191</v>
       </c>
       <c r="C74">
-        <v>0.005004842562170546</v>
+        <v>0.541058056744234</v>
       </c>
       <c r="D74">
-        <v>0.01047984205645471</v>
+        <v>0.3063467588506401</v>
       </c>
       <c r="E74">
-        <v>0.01868628119598133</v>
+        <v>0.8134671638201816</v>
       </c>
       <c r="F74">
-        <v>0.01538677118493239</v>
+        <v>0.5635493611483354</v>
       </c>
       <c r="G74">
-        <v>0.01503542783919609</v>
+        <v>0.3195839635061302</v>
       </c>
       <c r="H74">
-        <v>0.0006549817506664915</v>
+        <v>0.04187379506722545</v>
       </c>
       <c r="I74">
-        <v>-0.001278645479579099</v>
+        <v>-0.535840661763464</v>
       </c>
       <c r="J74">
-        <v>-0.01331192208203037</v>
+        <v>-0.5303883110257948</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.01029916349305066</v>
+        <v>-7.475819194584705E-06</v>
       </c>
       <c r="C75">
-        <v>0.009667875056567252</v>
+        <v>0.001107420512720538</v>
       </c>
       <c r="D75">
-        <v>0.01195150991651175</v>
+        <v>0.001723719425493534</v>
       </c>
       <c r="E75">
-        <v>0.01831419649053716</v>
+        <v>0.002245290305749712</v>
       </c>
       <c r="F75">
-        <v>0.01579802841291556</v>
+        <v>0.001936768692387909</v>
       </c>
       <c r="G75">
-        <v>0.01509367782797529</v>
+        <v>0.001559451243751738</v>
       </c>
       <c r="H75">
-        <v>0.006347692058361365</v>
+        <v>-1.373530217963901E-05</v>
       </c>
       <c r="I75">
-        <v>-0.001304778677881292</v>
+        <v>-0.0002380214958086741</v>
       </c>
       <c r="J75">
-        <v>-0.009132421208202733</v>
+        <v>-0.0008410778324264921</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1219382939985278</v>
+        <v>-0.5781828785976323</v>
       </c>
       <c r="C76">
-        <v>0.07993015129748483</v>
+        <v>-0.1318485896101037</v>
       </c>
       <c r="D76">
-        <v>0.1638176491759873</v>
+        <v>0.5595934763851523</v>
       </c>
       <c r="E76">
-        <v>0.3483019223309673</v>
+        <v>0.8523789517786718</v>
       </c>
       <c r="F76">
-        <v>0.2570857716823943</v>
+        <v>0.5061116584974821</v>
       </c>
       <c r="G76">
-        <v>0.1931258180959603</v>
+        <v>0.3178671860451271</v>
       </c>
       <c r="H76">
-        <v>0.1277421186333142</v>
+        <v>-0.200160002800528</v>
       </c>
       <c r="I76">
-        <v>-0.07718991717645739</v>
+        <v>-0.3607428719517042</v>
       </c>
       <c r="J76">
-        <v>-0.1635309339825841</v>
+        <v>-0.9149606777689937</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2694893269413082</v>
+        <v>-0.01107887683547401</v>
       </c>
       <c r="C77">
-        <v>0.158897028617847</v>
+        <v>0.005938369254961087</v>
       </c>
       <c r="D77">
-        <v>0.284444210579828</v>
+        <v>0.009531668273816515</v>
       </c>
       <c r="E77">
-        <v>1.010547690466534</v>
+        <v>0.02094647722451143</v>
       </c>
       <c r="F77">
-        <v>0.650098978414496</v>
+        <v>0.02030684413518656</v>
       </c>
       <c r="G77">
-        <v>0.3868433531295908</v>
+        <v>0.01593750890395105</v>
       </c>
       <c r="H77">
-        <v>0.01724334592914469</v>
+        <v>-0.001395403079183855</v>
       </c>
       <c r="I77">
-        <v>-0.5534889041286799</v>
+        <v>-0.002341845286788003</v>
       </c>
       <c r="J77">
-        <v>-0.5359721841372174</v>
+        <v>-0.01026924238724086</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.64283423629822E-06</v>
+        <v>-0.3281973026241438</v>
       </c>
       <c r="C78">
-        <v>0.0003264203783685451</v>
+        <v>0.09824594838989388</v>
       </c>
       <c r="D78">
-        <v>0.00148122533737175</v>
+        <v>0.3269479831270713</v>
       </c>
       <c r="E78">
-        <v>0.002142966473123807</v>
+        <v>0.4700783207525631</v>
       </c>
       <c r="F78">
-        <v>0.001593076507808727</v>
+        <v>0.431297108716968</v>
       </c>
       <c r="G78">
-        <v>0.0009250840491441635</v>
+        <v>0.3353289184026811</v>
       </c>
       <c r="H78">
-        <v>9.847465526095699E-05</v>
+        <v>-0.006048466708894352</v>
       </c>
       <c r="I78">
-        <v>-0.0001276346899258103</v>
+        <v>-0.2191093592543197</v>
       </c>
       <c r="J78">
-        <v>-0.0006325746812966468</v>
+        <v>-0.3235532990328968</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.008047766551751018</v>
+        <v>-0.2053685191435676</v>
       </c>
       <c r="C79">
-        <v>0.008561172264974699</v>
+        <v>0.0737780956868461</v>
       </c>
       <c r="D79">
-        <v>0.01061775810433948</v>
+        <v>0.1719379642540476</v>
       </c>
       <c r="E79">
-        <v>0.01395011898649288</v>
+        <v>0.3974332142909379</v>
       </c>
       <c r="F79">
-        <v>0.01754552229938063</v>
+        <v>0.3164041487713371</v>
       </c>
       <c r="G79">
-        <v>0.01445768616697023</v>
+        <v>0.2596724715606192</v>
       </c>
       <c r="H79">
-        <v>-0.0008327583766209441</v>
+        <v>-0.004969128589749001</v>
       </c>
       <c r="I79">
-        <v>-0.001299835353524798</v>
+        <v>-0.1410906599773883</v>
       </c>
       <c r="J79">
-        <v>-0.006146162596871349</v>
+        <v>-0.1215466966293426</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.01260657070892421</v>
+        <v>-0.01462428909010862</v>
       </c>
       <c r="C80">
-        <v>0.007026801462710727</v>
+        <v>0.007365203265008373</v>
       </c>
       <c r="D80">
-        <v>0.0119343094337512</v>
+        <v>0.01475217592771345</v>
       </c>
       <c r="E80">
-        <v>0.0210705315442294</v>
+        <v>0.02259373274479069</v>
       </c>
       <c r="F80">
-        <v>0.02069976352568713</v>
+        <v>0.02242402211167399</v>
       </c>
       <c r="G80">
-        <v>0.01506082029729545</v>
+        <v>0.01721086845098082</v>
       </c>
       <c r="H80">
-        <v>0.002951176336598936</v>
+        <v>-0.00194114018181274</v>
       </c>
       <c r="I80">
-        <v>-0.001315515569722527</v>
+        <v>-0.0025476300456128</v>
       </c>
       <c r="J80">
-        <v>-0.01152425204350401</v>
+        <v>-0.01317056975365553</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.2281235921745368</v>
+        <v>-0.5025838094633085</v>
       </c>
       <c r="C81">
-        <v>0.2360897218036979</v>
+        <v>0.4489683269958538</v>
       </c>
       <c r="D81">
-        <v>0.2070853487582614</v>
+        <v>0.0700962007608531</v>
       </c>
       <c r="E81">
-        <v>0.4339327378808732</v>
+        <v>0.8500450997866099</v>
       </c>
       <c r="F81">
-        <v>0.3717215794776489</v>
+        <v>0.5996168201673759</v>
       </c>
       <c r="G81">
-        <v>0.2926203222981268</v>
+        <v>0.2274308545558219</v>
       </c>
       <c r="H81">
-        <v>0.04328848522275923</v>
+        <v>-0.1514204610932368</v>
       </c>
       <c r="I81">
-        <v>-0.08500765468656384</v>
+        <v>-0.3953174319825041</v>
       </c>
       <c r="J81">
-        <v>-0.3837855619978963</v>
+        <v>-0.4318153398592434</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-1.797119837338905E-06</v>
+        <v>-0.1070802036846005</v>
       </c>
       <c r="C82">
-        <v>0.0006665535302406813</v>
+        <v>0.05335645256438051</v>
       </c>
       <c r="D82">
-        <v>0.001230813621303208</v>
+        <v>0.09180643008803506</v>
       </c>
       <c r="E82">
-        <v>0.001879660533268321</v>
+        <v>0.196813902160419</v>
       </c>
       <c r="F82">
-        <v>0.001680439316018697</v>
+        <v>0.1553366625566719</v>
       </c>
       <c r="G82">
-        <v>0.001569517570083162</v>
+        <v>0.1125047707262273</v>
       </c>
       <c r="H82">
-        <v>0.0005948052312089793</v>
+        <v>0.01658511283740314</v>
       </c>
       <c r="I82">
-        <v>-0.000128253612076095</v>
+        <v>-0.02614504582358835</v>
       </c>
       <c r="J82">
-        <v>-0.0007163816589202085</v>
+        <v>-0.03941200391201437</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.009557163409281134</v>
+        <v>-0.1143598295486208</v>
       </c>
       <c r="C83">
-        <v>0.009206461350273967</v>
+        <v>0.07789917323439033</v>
       </c>
       <c r="D83">
-        <v>0.01377484882281061</v>
+        <v>0.08480869034236267</v>
       </c>
       <c r="E83">
-        <v>0.0174584105480852</v>
+        <v>0.1610653830172607</v>
       </c>
       <c r="F83">
-        <v>0.01658161208564773</v>
+        <v>0.1751197999888882</v>
       </c>
       <c r="G83">
-        <v>0.01385494465158333</v>
+        <v>0.1169134615641609</v>
       </c>
       <c r="H83">
-        <v>0.002211610909517987</v>
+        <v>0.02607241274992406</v>
       </c>
       <c r="I83">
-        <v>-0.001279856406018536</v>
+        <v>-0.02891936368692717</v>
       </c>
       <c r="J83">
-        <v>-0.006841410770499001</v>
+        <v>-0.09605217686747095</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2089011915305772</v>
+        <v>-0.001464872223919802</v>
       </c>
       <c r="C84">
-        <v>0.1858805453283225</v>
+        <v>0.001177599285329715</v>
       </c>
       <c r="D84">
-        <v>0.1246589576084103</v>
+        <v>0.001431306887627508</v>
       </c>
       <c r="E84">
-        <v>0.308280814787692</v>
+        <v>0.00218851663117123</v>
       </c>
       <c r="F84">
-        <v>0.4433391124026759</v>
+        <v>0.002086115378608832</v>
       </c>
       <c r="G84">
-        <v>0.2119100362981258</v>
+        <v>0.002124178030953872</v>
       </c>
       <c r="H84">
-        <v>0.01859387095940792</v>
+        <v>0.0006931845840449573</v>
       </c>
       <c r="I84">
-        <v>-0.0797780365556828</v>
+        <v>-0.0002377365723290766</v>
       </c>
       <c r="J84">
-        <v>-0.2544866252483065</v>
+        <v>-0.0009614177927345152</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.007732474970866491</v>
+        <v>-0.01265869347802306</v>
       </c>
       <c r="C85">
-        <v>0.009953258113406374</v>
+        <v>0.008897179435302289</v>
       </c>
       <c r="D85">
-        <v>0.01066999585662224</v>
+        <v>0.01516863841746716</v>
       </c>
       <c r="E85">
-        <v>0.01593693967686175</v>
+        <v>0.02146785686978871</v>
       </c>
       <c r="F85">
-        <v>0.01593243259414115</v>
+        <v>0.01943141544563132</v>
       </c>
       <c r="G85">
-        <v>0.01048072222490384</v>
+        <v>0.0186379167376306</v>
       </c>
       <c r="H85">
-        <v>0.0007676674704293533</v>
+        <v>0.001353500215671935</v>
       </c>
       <c r="I85">
-        <v>-0.001322553928496648</v>
+        <v>-0.002461356128730657</v>
       </c>
       <c r="J85">
-        <v>-0.008412977267197789</v>
+        <v>-0.004185080551574464</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1580105342861647</v>
+        <v>-0.2763141385718647</v>
       </c>
       <c r="C86">
-        <v>0.1454725652710456</v>
+        <v>0.09731610683469082</v>
       </c>
       <c r="D86">
-        <v>0.2102496126232651</v>
+        <v>0.2266776568340411</v>
       </c>
       <c r="E86">
-        <v>0.2850207692301628</v>
+        <v>0.6587543726285299</v>
       </c>
       <c r="F86">
-        <v>0.2681078371330374</v>
+        <v>0.2859066679133843</v>
       </c>
       <c r="G86">
-        <v>0.2026418200255829</v>
+        <v>0.1362657934554573</v>
       </c>
       <c r="H86">
-        <v>0.08561061179790526</v>
+        <v>-0.05945222318760625</v>
       </c>
       <c r="I86">
-        <v>-0.07118191619937096</v>
+        <v>-0.1346491295564319</v>
       </c>
       <c r="J86">
-        <v>-0.2863215867687056</v>
+        <v>-0.2954119849060842</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-1.767561701697596E-06</v>
+        <v>-0.0122254299838079</v>
       </c>
       <c r="C87">
-        <v>0.0007160758991372554</v>
+        <v>0.007697730665934066</v>
       </c>
       <c r="D87">
-        <v>0.001186331576543912</v>
+        <v>0.0135471707084455</v>
       </c>
       <c r="E87">
-        <v>0.00197606182683795</v>
+        <v>0.02146554309002764</v>
       </c>
       <c r="F87">
-        <v>0.001955886110483758</v>
+        <v>0.0193421893412215</v>
       </c>
       <c r="G87">
-        <v>0.001127572759180224</v>
+        <v>0.01738023694983914</v>
       </c>
       <c r="H87">
-        <v>0.0002451958662114873</v>
+        <v>0.001022427001597021</v>
       </c>
       <c r="I87">
-        <v>-0.000128222425822845</v>
+        <v>-0.002500958728391603</v>
       </c>
       <c r="J87">
-        <v>-0.0006947838550174575</v>
+        <v>-0.009523535626317733</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.5644737109951901</v>
+        <v>-0.09952417907136894</v>
       </c>
       <c r="C88">
-        <v>0.5834357044248303</v>
+        <v>0.03537167344773958</v>
       </c>
       <c r="D88">
-        <v>0.1577306253639782</v>
+        <v>0.06043546056509281</v>
       </c>
       <c r="E88">
-        <v>1.153454389261924</v>
+        <v>0.1725050867214703</v>
       </c>
       <c r="F88">
-        <v>0.8356962567480979</v>
+        <v>0.1482995393382819</v>
       </c>
       <c r="G88">
-        <v>0.1509732462883157</v>
+        <v>0.1457817636202205</v>
       </c>
       <c r="H88">
-        <v>-0.1983582691652108</v>
+        <v>0.01543925474607913</v>
       </c>
       <c r="I88">
-        <v>-0.2587621220129007</v>
+        <v>-0.0270066197074296</v>
       </c>
       <c r="J88">
-        <v>-0.5672247270038987</v>
+        <v>-0.07959330306184466</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.274788183363155E-06</v>
+        <v>-0.2017291567756623</v>
       </c>
       <c r="C89">
-        <v>0.0004910899197012634</v>
+        <v>-0.04479093976884473</v>
       </c>
       <c r="D89">
-        <v>0.001138654566129712</v>
+        <v>0.1517561610686439</v>
       </c>
       <c r="E89">
-        <v>0.001645595118231815</v>
+        <v>0.5003108487782454</v>
       </c>
       <c r="F89">
-        <v>0.001418000881858404</v>
+        <v>0.3289063812318899</v>
       </c>
       <c r="G89">
-        <v>0.00111003242247021</v>
+        <v>0.1536567667790446</v>
       </c>
       <c r="H89">
-        <v>0.000593322222932644</v>
+        <v>0.05296919001485174</v>
       </c>
       <c r="I89">
-        <v>-0.0001277071665986154</v>
+        <v>-0.1224133663916137</v>
       </c>
       <c r="J89">
-        <v>-0.0007654874899774874</v>
+        <v>-0.1748228360997969</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01139860425284624</v>
+        <v>-0.001527582892568175</v>
       </c>
       <c r="C90">
-        <v>0.00714901338656546</v>
+        <v>0.0008011339910386748</v>
       </c>
       <c r="D90">
-        <v>0.01661664796671381</v>
+        <v>0.002054071963150917</v>
       </c>
       <c r="E90">
-        <v>0.02175774084289884</v>
+        <v>0.00246102839785952</v>
       </c>
       <c r="F90">
-        <v>0.01696916449139306</v>
+        <v>0.002288177092450527</v>
       </c>
       <c r="G90">
-        <v>0.01229732788847428</v>
+        <v>0.001479536683460448</v>
       </c>
       <c r="H90">
-        <v>0.004123233686886032</v>
+        <v>0.0003319005621755922</v>
       </c>
       <c r="I90">
-        <v>-0.001344591229057379</v>
+        <v>-0.0002369473631613181</v>
       </c>
       <c r="J90">
-        <v>-0.006387312588706262</v>
+        <v>-0.0009240742998528461</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.1751317865084457</v>
+        <v>-0.001397778668923473</v>
       </c>
       <c r="C91">
-        <v>0.1607511755189516</v>
+        <v>0.001014934714377489</v>
       </c>
       <c r="D91">
-        <v>0.3074337947301984</v>
+        <v>0.001284731336408957</v>
       </c>
       <c r="E91">
-        <v>0.3810570648602417</v>
+        <v>0.002161352525628401</v>
       </c>
       <c r="F91">
-        <v>0.3747311265268168</v>
+        <v>0.00204849597863481</v>
       </c>
       <c r="G91">
-        <v>0.2728731982965884</v>
+        <v>0.002036231110894081</v>
       </c>
       <c r="H91">
-        <v>0.02756702693380066</v>
+        <v>0.0005921849150701429</v>
       </c>
       <c r="I91">
-        <v>-0.138631765296629</v>
+        <v>-0.0002372164640409343</v>
       </c>
       <c r="J91">
-        <v>-0.2726172425989226</v>
+        <v>-0.001269986057793049</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01022286346980161</v>
+        <v>-6.376921815893704E-06</v>
       </c>
       <c r="C92">
-        <v>0.003179373814909331</v>
+        <v>0.001010683863809603</v>
       </c>
       <c r="D92">
-        <v>0.009973446413802737</v>
+        <v>0.001382869939266091</v>
       </c>
       <c r="E92">
-        <v>0.01800368724149334</v>
+        <v>0.00216055624541076</v>
       </c>
       <c r="F92">
-        <v>0.01828836224192164</v>
+        <v>0.001738823374366412</v>
       </c>
       <c r="G92">
-        <v>0.01616383321540858</v>
+        <v>0.001388776812536835</v>
       </c>
       <c r="H92">
-        <v>0.005924105693569112</v>
+        <v>0.0003094948142791495</v>
       </c>
       <c r="I92">
-        <v>-0.001329207121570355</v>
+        <v>-0.0002380227713845919</v>
       </c>
       <c r="J92">
-        <v>-0.01034659664301644</v>
+        <v>-0.001020759905731499</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2647979678097685</v>
+        <v>-0.01101232063700261</v>
       </c>
       <c r="C93">
-        <v>0.8304242657079233</v>
+        <v>0.00532914688670386</v>
       </c>
       <c r="D93">
-        <v>-0.2165140713574889</v>
+        <v>0.01209926028850187</v>
       </c>
       <c r="E93">
-        <v>1.056429643446506</v>
+        <v>0.02078288385302948</v>
       </c>
       <c r="F93">
-        <v>1.048155934983629</v>
+        <v>0.01891650040836665</v>
       </c>
       <c r="G93">
-        <v>-0.1059507151027465</v>
+        <v>0.0156047957124319</v>
       </c>
       <c r="H93">
-        <v>0.08936705555931887</v>
+        <v>0.005569890980442994</v>
       </c>
       <c r="I93">
-        <v>-0.7539334078642117</v>
+        <v>-0.002361988267186809</v>
       </c>
       <c r="J93">
-        <v>-0.4839442144252039</v>
+        <v>-0.009623191814529603</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.1305147673506643</v>
+        <v>-0.2875538686850639</v>
       </c>
       <c r="C94">
-        <v>0.1071808197119363</v>
+        <v>0.1180566204700928</v>
       </c>
       <c r="D94">
-        <v>0.272756425539096</v>
+        <v>0.1630877188495806</v>
       </c>
       <c r="E94">
-        <v>0.941246466751371</v>
+        <v>0.4795229546269082</v>
       </c>
       <c r="F94">
-        <v>0.4068246672892924</v>
+        <v>0.4877124216112631</v>
       </c>
       <c r="G94">
-        <v>0.2481476695009805</v>
+        <v>0.2503662615442414</v>
       </c>
       <c r="H94">
-        <v>-0.05955291580071302</v>
+        <v>0.03066477636916055</v>
       </c>
       <c r="I94">
-        <v>-0.6875545613817682</v>
+        <v>-0.1653388134786985</v>
       </c>
       <c r="J94">
-        <v>-0.8177170416604495</v>
+        <v>-0.2678053788242499</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.427549133389166E-06</v>
+        <v>-0.2466680637184077</v>
       </c>
       <c r="C95">
-        <v>0.0007545283805864076</v>
+        <v>0.08491636550914648</v>
       </c>
       <c r="D95">
-        <v>0.001426351881215435</v>
+        <v>0.176474913673359</v>
       </c>
       <c r="E95">
-        <v>0.001711240401769993</v>
+        <v>0.4471716308037021</v>
       </c>
       <c r="F95">
-        <v>0.001676608127232326</v>
+        <v>0.3608422974819051</v>
       </c>
       <c r="G95">
-        <v>0.0008573156810658051</v>
+        <v>0.2021759743506703</v>
       </c>
       <c r="H95">
-        <v>0.0002598148697029042</v>
+        <v>0.1363589536110846</v>
       </c>
       <c r="I95">
-        <v>-0.0001278394180802991</v>
+        <v>-0.1345022730519692</v>
       </c>
       <c r="J95">
-        <v>-0.0004724893388635455</v>
+        <v>-0.2146168874524284</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.167445418651815</v>
+        <v>-0.2130860118666135</v>
       </c>
       <c r="C96">
-        <v>0.1618539732490905</v>
+        <v>0.08625039176779391</v>
       </c>
       <c r="D96">
-        <v>0.1732164753076373</v>
+        <v>0.2070137146880325</v>
       </c>
       <c r="E96">
-        <v>0.4619072243543206</v>
+        <v>0.3664504083195306</v>
       </c>
       <c r="F96">
-        <v>0.2640142088885736</v>
+        <v>0.3609285560104004</v>
       </c>
       <c r="G96">
-        <v>0.172277476484069</v>
+        <v>0.1853919477068804</v>
       </c>
       <c r="H96">
-        <v>-0.02943913319701937</v>
+        <v>0.08766614580203004</v>
       </c>
       <c r="I96">
-        <v>-0.08498172937403654</v>
+        <v>-0.1214849456589416</v>
       </c>
       <c r="J96">
-        <v>-0.199872282102255</v>
+        <v>-0.230598915788833</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.182758088239462</v>
+        <v>-0.3870359278700553</v>
       </c>
       <c r="C97">
-        <v>0.3156158372531533</v>
+        <v>0.000783985901938018</v>
       </c>
       <c r="D97">
-        <v>0.2520889253655867</v>
+        <v>0.4164927897271006</v>
       </c>
       <c r="E97">
-        <v>0.7730409590558273</v>
+        <v>0.5614798503340361</v>
       </c>
       <c r="F97">
-        <v>0.3900958351190413</v>
+        <v>0.4027139771077379</v>
       </c>
       <c r="G97">
-        <v>0.1771748273222376</v>
+        <v>0.3005644252599539</v>
       </c>
       <c r="H97">
-        <v>0.1301449088989413</v>
+        <v>0.0991819522476149</v>
       </c>
       <c r="I97">
-        <v>-0.4200167030962257</v>
+        <v>-0.2432432338372952</v>
       </c>
       <c r="J97">
-        <v>-0.4718930206219113</v>
+        <v>-0.3361773556244328</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.007509357251223428</v>
+        <v>-0.01456833203542651</v>
       </c>
       <c r="C98">
-        <v>0.002383997646988536</v>
+        <v>0.008770818394033309</v>
       </c>
       <c r="D98">
-        <v>0.01181453681519448</v>
+        <v>0.01635103261750423</v>
       </c>
       <c r="E98">
-        <v>0.0183887811324599</v>
+        <v>0.02227040940191384</v>
       </c>
       <c r="F98">
-        <v>0.01354595764341262</v>
+        <v>0.02168389861246613</v>
       </c>
       <c r="G98">
-        <v>0.009519216992746436</v>
+        <v>0.01973308082982385</v>
       </c>
       <c r="H98">
-        <v>0.001087530824258588</v>
+        <v>0.001196960130499192</v>
       </c>
       <c r="I98">
-        <v>-0.001288357559478515</v>
+        <v>-0.002520157722143416</v>
       </c>
       <c r="J98">
-        <v>-0.01098305212809766</v>
+        <v>-0.006917710774497646</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.008586607910538731</v>
+        <v>-0.01280332472581914</v>
       </c>
       <c r="C99">
-        <v>0.009229642896410895</v>
+        <v>0.006105579704284915</v>
       </c>
       <c r="D99">
-        <v>0.009720797600840221</v>
+        <v>0.01232460164148327</v>
       </c>
       <c r="E99">
-        <v>0.01752240669849157</v>
+        <v>0.02186578767452978</v>
       </c>
       <c r="F99">
-        <v>0.01542906975117641</v>
+        <v>0.02058516565884753</v>
       </c>
       <c r="G99">
-        <v>0.01234452189595205</v>
+        <v>0.017166816852658</v>
       </c>
       <c r="H99">
-        <v>0.006302581618127894</v>
+        <v>-0.002834408490363089</v>
       </c>
       <c r="I99">
-        <v>-0.001287663364031076</v>
+        <v>-0.00235956874926183</v>
       </c>
       <c r="J99">
-        <v>-0.008584564188362101</v>
+        <v>-0.01245001233067796</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.0104974573652947</v>
+        <v>-0.2307256671697011</v>
       </c>
       <c r="C100">
-        <v>0.008470559506330542</v>
+        <v>0.01401655647124907</v>
       </c>
       <c r="D100">
-        <v>0.0141290531364382</v>
+        <v>0.1997387593000976</v>
       </c>
       <c r="E100">
-        <v>0.01916303999195589</v>
+        <v>0.4656360603377264</v>
       </c>
       <c r="F100">
-        <v>0.01702736247272082</v>
+        <v>0.3331914433303309</v>
       </c>
       <c r="G100">
-        <v>0.01226648795422501</v>
+        <v>0.1477185009993827</v>
       </c>
       <c r="H100">
-        <v>0.005117024074730157</v>
+        <v>-0.01873223926125244</v>
       </c>
       <c r="I100">
-        <v>-0.00134474019393563</v>
+        <v>-0.1315815457356504</v>
       </c>
       <c r="J100">
-        <v>-0.009750329414371248</v>
+        <v>-0.2214133976391393</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1522714786568669</v>
+        <v>-0.09644102401386653</v>
       </c>
       <c r="C101">
-        <v>0.7284570951242436</v>
+        <v>0.09812888214121201</v>
       </c>
       <c r="D101">
-        <v>0.3476138442730634</v>
+        <v>0.08262724663098231</v>
       </c>
       <c r="E101">
-        <v>0.9845972247809377</v>
+        <v>0.1673044349102214</v>
       </c>
       <c r="F101">
-        <v>0.2184538996982659</v>
+        <v>0.1306244203414086</v>
       </c>
       <c r="G101">
-        <v>-0.07360522496121</v>
+        <v>0.1282524027678826</v>
       </c>
       <c r="H101">
-        <v>-0.2878628749376031</v>
+        <v>0.009848153835256647</v>
       </c>
       <c r="I101">
-        <v>-0.9018596272610204</v>
+        <v>-0.02582511105549046</v>
       </c>
       <c r="J101">
-        <v>-1.347697750923608</v>
+        <v>-0.05367862255886139</v>
       </c>
     </row>
   </sheetData>
